--- a/moodys_datahub/data/date_cols.xlsx
+++ b/moodys_datahub/data/date_cols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/kgp_lib_cbs_dk/Documents/Desktop/Orbis/orbis_tools/orbis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/kgp_lib_cbs_dk/Documents/Desktop/moody-s_datahub/moodys_datahub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="11_2BB1D69C5B70DB28EB3B2311592620F659D1E438" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDF238F8-BD40-4A3B-8E79-9E610F005A7D}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="11_2BB1D69C5B70DB28EB3B2311592620F659D1E438" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{416F1F40-E8EF-4244-997B-C54C790A0975}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="169">
   <si>
     <t>Data Product</t>
   </si>
@@ -532,6 +532,18 @@
   </si>
   <si>
     <t>linkswitharchive</t>
+  </si>
+  <si>
+    <t>Probability of Default</t>
+  </si>
+  <si>
+    <t>probability_of_default_by_moodys_analytics</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -901,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,6 +2717,20 @@
       </c>
       <c r="D128" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>165</v>
+      </c>
+      <c r="B129" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129" t="s">
+        <v>167</v>
+      </c>
+      <c r="D129" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
